--- a/Conducteur2022-04-09-Nuit.xlsx
+++ b/Conducteur2022-04-09-Nuit.xlsx
@@ -7,16 +7,20 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="Conducteur 1" sheetId="1" r:id="rId1"/>
-    <sheet name="Conducteur 2" sheetId="2" r:id="rId2"/>
-    <sheet name="Conducteur 3" sheetId="3" r:id="rId3"/>
+    <sheet name="recaputulation " sheetId="1" r:id="rId1"/>
+    <sheet name="Conducteur 1" sheetId="2" r:id="rId2"/>
+    <sheet name="Conducteur 2" sheetId="3" r:id="rId3"/>
+    <sheet name="Conducteur 3" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="84">
+  <si>
+    <t>Unnamed: 0</t>
+  </si>
   <si>
     <t>Date</t>
   </si>
@@ -57,12 +61,24 @@
     <t>Brigade</t>
   </si>
   <si>
+    <t>Conducteur_ID</t>
+  </si>
+  <si>
     <t>2022-04-09</t>
   </si>
   <si>
     <t>2022-04-10</t>
   </si>
   <si>
+    <t>19:15:00</t>
+  </si>
+  <si>
+    <t>19:25:00</t>
+  </si>
+  <si>
+    <t>19:35:00</t>
+  </si>
+  <si>
     <t>21:00:00</t>
   </si>
   <si>
@@ -75,15 +91,36 @@
     <t>19:05:00</t>
   </si>
   <si>
+    <t>07:20:00</t>
+  </si>
+  <si>
+    <t>07:30:00</t>
+  </si>
+  <si>
     <t>VLG</t>
   </si>
   <si>
+    <t>DTH</t>
+  </si>
+  <si>
     <t>DAH</t>
   </si>
   <si>
     <t>MRS</t>
   </si>
   <si>
+    <t>CZL</t>
+  </si>
+  <si>
+    <t>AAE</t>
+  </si>
+  <si>
+    <t>ELG</t>
+  </si>
+  <si>
+    <t>TMR</t>
+  </si>
+  <si>
     <t>BCN</t>
   </si>
   <si>
@@ -93,24 +130,69 @@
     <t>7TVJV</t>
   </si>
   <si>
+    <t>7TVCM</t>
+  </si>
+  <si>
+    <t>7TVJR</t>
+  </si>
+  <si>
+    <t>7TVCC</t>
+  </si>
+  <si>
+    <t>7TVUO</t>
+  </si>
+  <si>
+    <t>7TVUQ</t>
+  </si>
+  <si>
+    <t>7TVKP</t>
+  </si>
+  <si>
     <t>7TVJZ</t>
   </si>
   <si>
     <t>A330</t>
   </si>
   <si>
+    <t>DH8D</t>
+  </si>
+  <si>
+    <t>B736</t>
+  </si>
+  <si>
     <t>A320</t>
   </si>
   <si>
+    <t>B738</t>
+  </si>
+  <si>
+    <t>ATR72</t>
+  </si>
+  <si>
     <t>JED</t>
   </si>
   <si>
     <t>YUL</t>
   </si>
   <si>
+    <t>HRM</t>
+  </si>
+  <si>
+    <t>LOO</t>
+  </si>
+  <si>
     <t>P16</t>
   </si>
   <si>
+    <t>P11A</t>
+  </si>
+  <si>
+    <t>PA1</t>
+  </si>
+  <si>
+    <t>P9</t>
+  </si>
+  <si>
     <t>P24B</t>
   </si>
   <si>
@@ -120,9 +202,24 @@
     <t>P20</t>
   </si>
   <si>
+    <t>P10C</t>
+  </si>
+  <si>
     <t>DECOLLE 19:15</t>
   </si>
   <si>
+    <t>ARRIVE 19:28</t>
+  </si>
+  <si>
+    <t>ARRIVE 19:30</t>
+  </si>
+  <si>
+    <t>ARRIVE 18:55</t>
+  </si>
+  <si>
+    <t>ARRIVE 19:45</t>
+  </si>
+  <si>
     <t>ARRIVE 20:56</t>
   </si>
   <si>
@@ -132,9 +229,24 @@
     <t>ARRIVE 04:15</t>
   </si>
   <si>
+    <t>DECOLLE 07:40</t>
+  </si>
+  <si>
+    <t>DECOLLE 07:30</t>
+  </si>
+  <si>
     <t>109PX</t>
   </si>
   <si>
+    <t>66PX</t>
+  </si>
+  <si>
+    <t>55PAX</t>
+  </si>
+  <si>
+    <t>131PAX</t>
+  </si>
+  <si>
     <t>248PX</t>
   </si>
   <si>
@@ -144,124 +256,19 @@
     <t>154 PX</t>
   </si>
   <si>
+    <t>39 PX</t>
+  </si>
+  <si>
     <t>T4</t>
   </si>
   <si>
+    <t>T2</t>
+  </si>
+  <si>
     <t>T3</t>
   </si>
   <si>
     <t>Nuit</t>
-  </si>
-  <si>
-    <t>19:15:00</t>
-  </si>
-  <si>
-    <t>19:25:00</t>
-  </si>
-  <si>
-    <t>19:35:00</t>
-  </si>
-  <si>
-    <t>DTH</t>
-  </si>
-  <si>
-    <t>CZL</t>
-  </si>
-  <si>
-    <t>ELG</t>
-  </si>
-  <si>
-    <t>TMR</t>
-  </si>
-  <si>
-    <t>7TVCC</t>
-  </si>
-  <si>
-    <t>7TVUQ</t>
-  </si>
-  <si>
-    <t>7TVKP</t>
-  </si>
-  <si>
-    <t>B738</t>
-  </si>
-  <si>
-    <t>ATR72</t>
-  </si>
-  <si>
-    <t>P11A</t>
-  </si>
-  <si>
-    <t>PA1</t>
-  </si>
-  <si>
-    <t>P9</t>
-  </si>
-  <si>
-    <t>ARRIVE 19:28</t>
-  </si>
-  <si>
-    <t>ARRIVE 18:55</t>
-  </si>
-  <si>
-    <t>ARRIVE 19:45</t>
-  </si>
-  <si>
-    <t>55PAX</t>
-  </si>
-  <si>
-    <t>131PAX</t>
-  </si>
-  <si>
-    <t>T2</t>
-  </si>
-  <si>
-    <t>07:20:00</t>
-  </si>
-  <si>
-    <t>07:30:00</t>
-  </si>
-  <si>
-    <t>AAE</t>
-  </si>
-  <si>
-    <t>7TVCM</t>
-  </si>
-  <si>
-    <t>7TVJR</t>
-  </si>
-  <si>
-    <t>7TVUO</t>
-  </si>
-  <si>
-    <t>DH8D</t>
-  </si>
-  <si>
-    <t>B736</t>
-  </si>
-  <si>
-    <t>HRM</t>
-  </si>
-  <si>
-    <t>LOO</t>
-  </si>
-  <si>
-    <t>P10C</t>
-  </si>
-  <si>
-    <t>ARRIVE 19:30</t>
-  </si>
-  <si>
-    <t>DECOLLE 07:40</t>
-  </si>
-  <si>
-    <t>DECOLLE 07:30</t>
-  </si>
-  <si>
-    <t>66PX</t>
-  </si>
-  <si>
-    <t>39 PX</t>
   </si>
 </sst>
 </file>
@@ -619,13 +626,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N5"/>
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:16">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -665,166 +672,472 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:16">
       <c r="A2" s="1">
+        <v>0</v>
+      </c>
+      <c r="B2">
         <v>96</v>
       </c>
-      <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D2" t="s">
-        <v>18</v>
+      <c r="C2" t="s">
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>19</v>
-      </c>
-      <c r="F2">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
         <v>7990</v>
       </c>
-      <c r="G2" t="s">
-        <v>21</v>
-      </c>
-      <c r="I2" t="s">
-        <v>27</v>
+      <c r="H2" t="s">
+        <v>29</v>
       </c>
       <c r="J2" t="s">
-        <v>30</v>
+        <v>47</v>
       </c>
       <c r="K2" t="s">
-        <v>34</v>
+        <v>54</v>
       </c>
       <c r="L2" t="s">
-        <v>38</v>
+        <v>62</v>
       </c>
       <c r="M2" t="s">
-        <v>42</v>
+        <v>72</v>
       </c>
       <c r="N2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s">
+        <v>83</v>
+      </c>
+      <c r="P2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:16">
       <c r="A3" s="1">
-        <v>101</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>97</v>
       </c>
       <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
+      <c r="D3" t="s">
+        <v>17</v>
+      </c>
+      <c r="F3" t="s">
+        <v>27</v>
+      </c>
+      <c r="G3">
+        <v>1841</v>
+      </c>
+      <c r="H3" t="s">
+        <v>30</v>
+      </c>
+      <c r="I3" t="s">
+        <v>39</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" t="s">
+        <v>63</v>
+      </c>
+      <c r="N3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" t="s">
+        <v>83</v>
+      </c>
+      <c r="P3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>98</v>
+      </c>
+      <c r="C4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>6177</v>
+      </c>
+      <c r="H4" t="s">
+        <v>31</v>
+      </c>
+      <c r="I4" t="s">
+        <v>40</v>
+      </c>
+      <c r="J4" t="s">
+        <v>49</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="s">
+        <v>73</v>
+      </c>
+      <c r="N4" t="s">
+        <v>81</v>
+      </c>
+      <c r="O4" t="s">
+        <v>83</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>15</v>
+      </c>
+      <c r="D5" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>6521</v>
+      </c>
+      <c r="H5" t="s">
+        <v>32</v>
+      </c>
+      <c r="I5" t="s">
+        <v>41</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>56</v>
+      </c>
+      <c r="L5" t="s">
+        <v>65</v>
+      </c>
+      <c r="M5" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" t="s">
+        <v>81</v>
+      </c>
+      <c r="O5" t="s">
+        <v>83</v>
+      </c>
+      <c r="P5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>100</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+      <c r="D6" t="s">
+        <v>19</v>
+      </c>
+      <c r="F6" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6">
+        <v>6292</v>
+      </c>
+      <c r="H6" t="s">
+        <v>33</v>
+      </c>
+      <c r="I6" t="s">
+        <v>42</v>
+      </c>
+      <c r="J6" t="s">
+        <v>48</v>
+      </c>
+      <c r="K6" t="s">
+        <v>57</v>
+      </c>
+      <c r="L6" t="s">
+        <v>66</v>
+      </c>
+      <c r="M6" t="s">
+        <v>75</v>
+      </c>
+      <c r="N6" t="s">
+        <v>81</v>
+      </c>
+      <c r="O6" t="s">
+        <v>83</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>101</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+      <c r="D7" t="s">
         <v>20</v>
       </c>
-      <c r="F3">
+      <c r="F7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G7">
         <v>2015</v>
       </c>
-      <c r="G3" t="s">
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+      <c r="I7" t="s">
+        <v>43</v>
+      </c>
+      <c r="J7" t="s">
+        <v>44</v>
+      </c>
+      <c r="K7" t="s">
+        <v>58</v>
+      </c>
+      <c r="L7" t="s">
+        <v>67</v>
+      </c>
+      <c r="M7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7" t="s">
+        <v>80</v>
+      </c>
+      <c r="O7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>102</v>
+      </c>
+      <c r="C8" t="s">
+        <v>16</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="F8" t="s">
+        <v>28</v>
+      </c>
+      <c r="G8">
+        <v>4603</v>
+      </c>
+      <c r="H8" t="s">
+        <v>35</v>
+      </c>
+      <c r="I8" t="s">
+        <v>44</v>
+      </c>
+      <c r="J8" t="s">
+        <v>50</v>
+      </c>
+      <c r="K8" t="s">
+        <v>59</v>
+      </c>
+      <c r="L8" t="s">
+        <v>68</v>
+      </c>
+      <c r="M8" t="s">
+        <v>77</v>
+      </c>
+      <c r="N8" t="s">
+        <v>82</v>
+      </c>
+      <c r="O8" t="s">
+        <v>83</v>
+      </c>
+      <c r="P8">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>103</v>
+      </c>
+      <c r="C9" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" t="s">
         <v>22</v>
       </c>
-      <c r="H3" t="s">
+      <c r="F9" t="s">
+        <v>28</v>
+      </c>
+      <c r="G9">
+        <v>2701</v>
+      </c>
+      <c r="H9" t="s">
+        <v>36</v>
+      </c>
+      <c r="I9" t="s">
+        <v>44</v>
+      </c>
+      <c r="J9" t="s">
+        <v>51</v>
+      </c>
+      <c r="K9" t="s">
+        <v>60</v>
+      </c>
+      <c r="L9" t="s">
+        <v>69</v>
+      </c>
+      <c r="M9" t="s">
+        <v>78</v>
+      </c>
+      <c r="N9" t="s">
+        <v>80</v>
+      </c>
+      <c r="O9" t="s">
+        <v>83</v>
+      </c>
+      <c r="P9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>104</v>
+      </c>
+      <c r="C10" t="s">
+        <v>16</v>
+      </c>
+      <c r="E10" t="s">
+        <v>24</v>
+      </c>
+      <c r="F10" t="s">
+        <v>27</v>
+      </c>
+      <c r="G10">
+        <v>1524</v>
+      </c>
+      <c r="H10" t="s">
+        <v>37</v>
+      </c>
+      <c r="I10" t="s">
+        <v>45</v>
+      </c>
+      <c r="J10" t="s">
+        <v>52</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="s">
+        <v>70</v>
+      </c>
+      <c r="N10" t="s">
+        <v>81</v>
+      </c>
+      <c r="O10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>105</v>
+      </c>
+      <c r="C11" t="s">
+        <v>16</v>
+      </c>
+      <c r="E11" t="s">
         <v>25</v>
       </c>
-      <c r="I3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J3" t="s">
-        <v>31</v>
-      </c>
-      <c r="K3" t="s">
-        <v>35</v>
-      </c>
-      <c r="L3" t="s">
-        <v>39</v>
-      </c>
-      <c r="M3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>102</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>4603</v>
-      </c>
-      <c r="G4" t="s">
-        <v>23</v>
-      </c>
-      <c r="H4" t="s">
-        <v>26</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="F11" t="s">
         <v>28</v>
       </c>
-      <c r="J4" t="s">
-        <v>32</v>
-      </c>
-      <c r="K4" t="s">
-        <v>36</v>
-      </c>
-      <c r="L4" t="s">
-        <v>40</v>
-      </c>
-      <c r="M4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
-      <c r="A5" s="1">
-        <v>103</v>
-      </c>
-      <c r="B5" t="s">
-        <v>14</v>
-      </c>
-      <c r="C5" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" t="s">
-        <v>20</v>
-      </c>
-      <c r="F5">
-        <v>2701</v>
-      </c>
-      <c r="G5" t="s">
-        <v>24</v>
-      </c>
-      <c r="H5" t="s">
-        <v>26</v>
-      </c>
-      <c r="I5" t="s">
-        <v>29</v>
-      </c>
-      <c r="J5" t="s">
-        <v>33</v>
-      </c>
-      <c r="K5" t="s">
-        <v>37</v>
-      </c>
-      <c r="L5" t="s">
-        <v>41</v>
-      </c>
-      <c r="M5" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" t="s">
-        <v>44</v>
+      <c r="G11">
+        <v>6070</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11" t="s">
+        <v>46</v>
+      </c>
+      <c r="J11" t="s">
+        <v>53</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" t="s">
+        <v>71</v>
+      </c>
+      <c r="M11" t="s">
+        <v>79</v>
+      </c>
+      <c r="N11" t="s">
+        <v>81</v>
+      </c>
+      <c r="O11" t="s">
+        <v>83</v>
+      </c>
+      <c r="P11">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
@@ -834,13 +1147,13 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -880,125 +1193,137 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>97</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>98</v>
       </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2">
+        <v>6177</v>
+      </c>
+      <c r="H2" t="s">
+        <v>31</v>
+      </c>
+      <c r="I2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>56</v>
+      </c>
+      <c r="L2" t="s">
+        <v>64</v>
+      </c>
+      <c r="M2" t="s">
+        <v>73</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>100</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>6292</v>
+      </c>
+      <c r="H3" t="s">
+        <v>33</v>
+      </c>
+      <c r="I3" t="s">
+        <v>42</v>
+      </c>
+      <c r="J3" t="s">
+        <v>48</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>66</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>8</v>
+      </c>
+      <c r="B4">
+        <v>104</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>27</v>
+      </c>
+      <c r="G4">
+        <v>1524</v>
+      </c>
+      <c r="H4" t="s">
+        <v>37</v>
+      </c>
+      <c r="I4" t="s">
         <v>45</v>
       </c>
-      <c r="E2" t="s">
-        <v>48</v>
-      </c>
-      <c r="F2">
-        <v>1841</v>
-      </c>
-      <c r="G2" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J4" t="s">
         <v>52</v>
       </c>
-      <c r="I2" t="s">
-        <v>55</v>
-      </c>
-      <c r="J2" t="s">
-        <v>57</v>
-      </c>
-      <c r="K2" t="s">
-        <v>60</v>
-      </c>
-      <c r="M2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>99</v>
-      </c>
-      <c r="B3" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E3" t="s">
-        <v>20</v>
-      </c>
-      <c r="F3">
-        <v>6521</v>
-      </c>
-      <c r="G3" t="s">
-        <v>50</v>
-      </c>
-      <c r="H3" t="s">
-        <v>53</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K4" t="s">
         <v>56</v>
       </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>61</v>
-      </c>
-      <c r="L3" t="s">
-        <v>63</v>
-      </c>
-      <c r="M3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>100</v>
-      </c>
-      <c r="B4" t="s">
-        <v>13</v>
-      </c>
-      <c r="C4" t="s">
-        <v>47</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>6292</v>
-      </c>
-      <c r="G4" t="s">
-        <v>51</v>
-      </c>
-      <c r="H4" t="s">
-        <v>54</v>
-      </c>
-      <c r="I4" t="s">
-        <v>55</v>
-      </c>
-      <c r="J4" t="s">
-        <v>59</v>
-      </c>
-      <c r="K4" t="s">
-        <v>62</v>
-      </c>
       <c r="L4" t="s">
-        <v>64</v>
-      </c>
-      <c r="M4" t="s">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="N4" t="s">
-        <v>44</v>
+        <v>81</v>
+      </c>
+      <c r="O4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -1008,13 +1333,13 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N4"/>
+  <dimension ref="A1:O5"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:15">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1054,125 +1379,367 @@
       <c r="N1" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
-        <v>98</v>
-      </c>
-      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B2">
+        <v>96</v>
+      </c>
+      <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2">
+        <v>7990</v>
+      </c>
+      <c r="H2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>47</v>
+      </c>
+      <c r="K2" t="s">
+        <v>54</v>
+      </c>
+      <c r="L2" t="s">
+        <v>62</v>
+      </c>
+      <c r="M2" t="s">
+        <v>72</v>
+      </c>
+      <c r="N2" t="s">
+        <v>80</v>
+      </c>
+      <c r="O2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>5</v>
+      </c>
+      <c r="B3">
+        <v>101</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>2015</v>
+      </c>
+      <c r="H3" t="s">
+        <v>34</v>
+      </c>
+      <c r="I3" t="s">
+        <v>43</v>
+      </c>
+      <c r="J3" t="s">
+        <v>44</v>
+      </c>
+      <c r="K3" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" t="s">
+        <v>67</v>
+      </c>
+      <c r="M3" t="s">
+        <v>76</v>
+      </c>
+      <c r="N3" t="s">
+        <v>80</v>
+      </c>
+      <c r="O3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>6</v>
+      </c>
+      <c r="B4">
+        <v>102</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>4603</v>
+      </c>
+      <c r="H4" t="s">
+        <v>35</v>
+      </c>
+      <c r="I4" t="s">
+        <v>44</v>
+      </c>
+      <c r="J4" t="s">
+        <v>50</v>
+      </c>
+      <c r="K4" t="s">
+        <v>59</v>
+      </c>
+      <c r="L4" t="s">
+        <v>68</v>
+      </c>
+      <c r="M4" t="s">
+        <v>77</v>
+      </c>
+      <c r="N4" t="s">
+        <v>82</v>
+      </c>
+      <c r="O4" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
+      <c r="A5" s="1">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>103</v>
+      </c>
+      <c r="C5" t="s">
+        <v>16</v>
+      </c>
+      <c r="D5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F5" t="s">
+        <v>28</v>
+      </c>
+      <c r="G5">
+        <v>2701</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+      <c r="I5" t="s">
+        <v>44</v>
+      </c>
+      <c r="J5" t="s">
+        <v>51</v>
+      </c>
+      <c r="K5" t="s">
+        <v>60</v>
+      </c>
+      <c r="L5" t="s">
+        <v>69</v>
+      </c>
+      <c r="M5" t="s">
+        <v>78</v>
+      </c>
+      <c r="N5" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" t="s">
+        <v>83</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:O4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:15">
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1" t="s">
         <v>13</v>
       </c>
+    </row>
+    <row r="2" spans="1:15">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>97</v>
+      </c>
       <c r="C2" t="s">
+        <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+      <c r="F2" t="s">
+        <v>27</v>
+      </c>
+      <c r="G2">
+        <v>1841</v>
+      </c>
+      <c r="H2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" t="s">
+        <v>39</v>
+      </c>
+      <c r="J2" t="s">
+        <v>48</v>
+      </c>
+      <c r="K2" t="s">
+        <v>55</v>
+      </c>
+      <c r="L2" t="s">
+        <v>63</v>
+      </c>
+      <c r="N2" t="s">
+        <v>81</v>
+      </c>
+      <c r="O2" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3">
+        <v>6521</v>
+      </c>
+      <c r="H3" t="s">
+        <v>32</v>
+      </c>
+      <c r="I3" t="s">
+        <v>41</v>
+      </c>
+      <c r="J3" t="s">
+        <v>49</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>65</v>
+      </c>
+      <c r="M3" t="s">
+        <v>74</v>
+      </c>
+      <c r="N3" t="s">
+        <v>81</v>
+      </c>
+      <c r="O3" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
+      <c r="A4" s="1">
+        <v>9</v>
+      </c>
+      <c r="B4">
+        <v>105</v>
+      </c>
+      <c r="C4" t="s">
+        <v>16</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>28</v>
+      </c>
+      <c r="G4">
+        <v>6070</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4" t="s">
         <v>46</v>
       </c>
-      <c r="E2" t="s">
-        <v>20</v>
-      </c>
-      <c r="F2">
-        <v>6177</v>
-      </c>
-      <c r="G2" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="J4" t="s">
+        <v>53</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
         <v>71</v>
       </c>
-      <c r="I2" t="s">
-        <v>56</v>
-      </c>
-      <c r="J2" t="s">
-        <v>58</v>
-      </c>
-      <c r="K2" t="s">
-        <v>77</v>
-      </c>
-      <c r="L2" t="s">
-        <v>80</v>
-      </c>
-      <c r="M2" t="s">
-        <v>65</v>
-      </c>
-      <c r="N2" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
-      <c r="A3" s="1">
-        <v>104</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="D3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E3" t="s">
-        <v>48</v>
-      </c>
-      <c r="F3">
-        <v>1524</v>
-      </c>
-      <c r="G3" t="s">
-        <v>69</v>
-      </c>
-      <c r="H3" t="s">
-        <v>72</v>
-      </c>
-      <c r="I3" t="s">
-        <v>74</v>
-      </c>
-      <c r="J3" t="s">
-        <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>78</v>
-      </c>
-      <c r="M3" t="s">
-        <v>65</v>
-      </c>
-      <c r="N3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
-      <c r="A4" s="1">
-        <v>105</v>
-      </c>
-      <c r="B4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F4">
-        <v>6070</v>
-      </c>
-      <c r="G4" t="s">
-        <v>70</v>
-      </c>
-      <c r="H4" t="s">
-        <v>73</v>
-      </c>
-      <c r="I4" t="s">
-        <v>75</v>
-      </c>
-      <c r="J4" t="s">
-        <v>76</v>
-      </c>
-      <c r="K4" t="s">
+      <c r="M4" t="s">
         <v>79</v>
       </c>
-      <c r="L4" t="s">
+      <c r="N4" t="s">
         <v>81</v>
       </c>
-      <c r="M4" t="s">
-        <v>65</v>
-      </c>
-      <c r="N4" t="s">
-        <v>44</v>
+      <c r="O4" t="s">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
